--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1718831.329852232</v>
+        <v>1823065.038245679</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.105228317</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10182023.84648298</v>
+        <v>10190936.73773459</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>330.7598727037312</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>206.7919134247645</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734102899</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>119.7793313427817</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>50.29977161693033</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>19.34104464821399</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>129.4714269367844</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>42.43496374539279</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>50.3783014689022</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>338.0394898029496</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>24.78273763152322</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>11.64558632322199</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.580502741791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3135037226523</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.9742741983431</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011749</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.98413062224105</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.23631843387907</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>3.006892987839969</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187864</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462175</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.9888698962491</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>246.2025596887007</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>106.1949878935058</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>140.1594216201949</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000853</v>
       </c>
       <c r="V34" t="n">
-        <v>111.6910841413357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016377</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>185.7933937888532</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>110.6781695176978</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>41.69085152457905</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1952.040104645723</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1427.334457753471</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1041.546205155227</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>630.5603003656197</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645723</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8037095364738</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835076</v>
+        <v>1216.244742171374</v>
       </c>
       <c r="W4" t="n">
-        <v>902.4041387981154</v>
+        <v>926.8275721344131</v>
       </c>
       <c r="X4" t="n">
-        <v>851.5962886800039</v>
+        <v>698.8380212363958</v>
       </c>
       <c r="Y4" t="n">
-        <v>630.8037095364738</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.741330469123</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.341170533245</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369613</v>
+        <v>890.2616555050635</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>721.3254725771566</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>571.2088331648208</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>423.2957395824277</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>423.2957395824277</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>255.5929029571467</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>109.3757161750044</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4758,19 @@
         <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.125814008748</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.136263110731</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672011</v>
+        <v>1071.910120335303</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1942.56751757296</v>
+        <v>1959.241091287692</v>
       </c>
       <c r="C8" t="n">
-        <v>1573.605000632548</v>
+        <v>1959.241091287692</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1600.975392680941</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1215.187140082697</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>804.2012352930897</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>389.1287851380861</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>91.54518474685335</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4835,19 +4837,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
         <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612893</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y8" t="n">
-        <v>2329.167357637081</v>
+        <v>2345.840931351814</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>650.5934525793617</v>
+        <v>953.2602595377767</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>784.3240766098698</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983425</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.5934525793617</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138415</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138415</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,25 +5287,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400762</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998336</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832668</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487572</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854711</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648824</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611863</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138461</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703159</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6072,19 +6074,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6166,31 +6168,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.5813165460164</v>
+        <v>929.730977335613</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>929.730977335613</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>779.6143379232773</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408842</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429738</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578538</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6397,37 +6399,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1814.846060413287</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1560.1615722074</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.011911417804</v>
+        <v>1560.1615722074</v>
       </c>
       <c r="X28" t="n">
-        <v>957.0223605197863</v>
+        <v>1332.172021309383</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2297813762561</v>
+        <v>1111.379442165853</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6488,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.9255961109956</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C31" t="n">
-        <v>489.9894131830887</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E31" t="n">
         <v>489.9894131830887</v>
@@ -6610,13 +6612,13 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2122.533075881433</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1833.45784922563</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.773361019743</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W31" t="n">
-        <v>1289.356190982783</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X31" t="n">
-        <v>1061.366640084765</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y31" t="n">
-        <v>840.5740609412353</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6691,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,25 +6703,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
         <v>631.7012443408906</v>
@@ -6856,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814783025</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038411</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797813</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910816</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853368</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1642.612280691864</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1353.195110654903</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081858</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153951</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U37" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854713</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990606</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953645</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055628</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,10 +7636,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.30196929556004</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844822607</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>47.43691740069019</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>63.36835372228172</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.1956044929951</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.32043864789031</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>40.23897475306333</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>77.24602870709336</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891588</v>
       </c>
       <c r="V34" t="n">
-        <v>140.4465591824923</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>66.34424953497484</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>115.0314858713394</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>125.5559695740488</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>104.8770068749571</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>891769.0620792896</v>
+        <v>900681.9533308957</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876831.7541419413</v>
+        <v>876831.7541419417</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419418</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>544823.9547907545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
       <c r="L2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.740199767097476e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137930.4104072219</v>
+      </c>
+      <c r="C4" t="n">
         <v>89134.17909312018</v>
       </c>
-      <c r="C4" t="n">
-        <v>89134.17909312017</v>
-      </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26436,19 +26438,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768994</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768992</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768981</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768994</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768979</v>
+        <v>9947.144321768992</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-971609.6707237151</v>
+        <v>-791416.7717645955</v>
       </c>
       <c r="C6" t="n">
-        <v>357135.0750038783</v>
+        <v>153696.3333917722</v>
       </c>
       <c r="D6" t="n">
         <v>357135.0750038782</v>
       </c>
       <c r="E6" t="n">
-        <v>108341.8188377227</v>
+        <v>108341.8188377228</v>
       </c>
       <c r="F6" t="n">
-        <v>433754.2806450782</v>
+        <v>433754.280645078</v>
       </c>
       <c r="G6" t="n">
+        <v>433754.2806450776</v>
+      </c>
+      <c r="H6" t="n">
         <v>433754.2806450783</v>
       </c>
-      <c r="H6" t="n">
-        <v>433754.2806450779</v>
-      </c>
       <c r="I6" t="n">
-        <v>433754.2806450778</v>
+        <v>433754.2806450783</v>
       </c>
       <c r="J6" t="n">
-        <v>216223.0782478004</v>
+        <v>266149.1028350957</v>
       </c>
       <c r="K6" t="n">
-        <v>433754.2806450778</v>
+        <v>384644.1879390235</v>
       </c>
       <c r="L6" t="n">
         <v>433754.2806450781</v>
       </c>
       <c r="M6" t="n">
-        <v>348699.2527095661</v>
+        <v>348699.2527095664</v>
       </c>
       <c r="N6" t="n">
+        <v>433754.2806450782</v>
+      </c>
+      <c r="O6" t="n">
+        <v>433754.2806450782</v>
+      </c>
+      <c r="P6" t="n">
         <v>433754.2806450781</v>
-      </c>
-      <c r="O6" t="n">
-        <v>433754.2806450779</v>
-      </c>
-      <c r="P6" t="n">
-        <v>433754.2806450779</v>
       </c>
     </row>
   </sheetData>
@@ -26704,19 +26706,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.51301906727633</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>204.7557893481895</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>132.3583119810463</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>175.4098837721068</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>345.9318471227936</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>256.7665117192692</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>53.9174566644453</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>236.1446968676888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>16.6435518177334</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>16.79419214140273</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.00415061030381</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29038,16 +29040,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29238,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>6.13460853191865e-12</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29281,16 +29283,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29448,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.331129313929566e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29509,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.386032029889369e-12</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,10 +29562,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.925249708871845e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29928,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.920691659962316e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30192,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>6.920691659962316e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807894</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32481,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32552,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33278,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>272.7569329364655</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>677.2750468965965</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>638.9422653403558</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974562</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36534,7 +36536,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999045</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36765,7 +36767,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060409</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36926,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326296028</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>134.2025531565913</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>535.1410129745782</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>496.3460208959114</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1823065.038245679</v>
+        <v>1819010.9124863</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228317</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>206.7919134247645</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>45.43347330582912</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>169.0331037720977</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>119.7793313427817</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.4714269367844</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>42.43496374539279</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>24.78273763152322</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>245.8056267012306</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>11.64558632322199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>52.07852635745694</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>95.12712756824166</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>97.98413062224105</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>28.23631843387907</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>41.02686156550218</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.006892987839969</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822257</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462175</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>160.9888698962491</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>106.1949878935058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>102.7673426709139</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000853</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016377</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>185.7933937888532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936148</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>110.6781695176978</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>112.5284434523311</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360222</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="C2" t="n">
-        <v>1785.600156360222</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="D2" t="n">
-        <v>1427.334457753471</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.546205155227</v>
+        <v>990.2034880760486</v>
       </c>
       <c r="F2" t="n">
-        <v>630.5603003656197</v>
+        <v>579.2175832864411</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>163.51283301073</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424344</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.189556406156</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>348.2533734782492</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1465.705611213792</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.244742171374</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="W4" t="n">
-        <v>926.8275721344131</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X4" t="n">
-        <v>698.8380212363958</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.8380212363958</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4606,13 +4606,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866152</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>890.2616555050635</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>721.3254725771566</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>571.2088331648208</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>423.2957395824277</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>423.2957395824277</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>255.5929029571467</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>109.3757161750044</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1071.910120335303</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1071.910120335303</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.241091287692</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C8" t="n">
-        <v>1959.241091287692</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D8" t="n">
-        <v>1600.975392680941</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1215.187140082697</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>804.2012352930897</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>389.1287851380861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>91.54518474685335</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3077.317309789745</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883008</v>
+        <v>2746.254422446174</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351814</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.840931351814</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>953.2602595377767</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C10" t="n">
-        <v>784.3240766098698</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>286.8195251357038</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>119.1166885104227</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>1134.908724368016</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876688</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>580.8993044876688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5609,10 +5609,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978464</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>274.8772357154533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E22" t="n">
-        <v>264.0500279773688</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F22" t="n">
-        <v>264.0500279773688</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6168,31 +6168,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2443.925817935984</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2261.070983590888</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2041.469518613829</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958027</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.730977335613</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C28" t="n">
-        <v>929.730977335613</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232773</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408842</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429738</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578538</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1814.846060413287</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.1615722074</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.1615722074</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309383</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165853</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2343.157686942974</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814783025</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038411</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797813</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580267</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580267</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532803</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510516</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854713</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.715759118498</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.298589081537</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.30903818352</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.30903818352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7195,28 +7195,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142494</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7405,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2333.297989183966</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.222762528164</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>47.43691740069019</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>99.26785128072171</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.36835372228172</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>15.00954930701846</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.506629716718379</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>125.1956044929951</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>40.23897475306333</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>78.25894333073069</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891588</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>66.34424953497484</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>62.35543909865406</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>115.0314858713394</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>104.8770068749571</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876831.7541419417</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>876831.7541419418</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419413</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907539</v>
@@ -26328,34 +26328,34 @@
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907542</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="L2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907544</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.740199767097476e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312027</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26438,19 +26438,19 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768994</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768992</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768981</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768994</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768992</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791416.7717645955</v>
+        <v>-791416.7717645944</v>
       </c>
       <c r="C6" t="n">
-        <v>153696.3333917722</v>
+        <v>153696.333391772</v>
       </c>
       <c r="D6" t="n">
-        <v>357135.0750038782</v>
+        <v>357135.0750038784</v>
       </c>
       <c r="E6" t="n">
-        <v>108341.8188377228</v>
+        <v>107994.4395833653</v>
       </c>
       <c r="F6" t="n">
-        <v>433754.280645078</v>
+        <v>433406.901390721</v>
       </c>
       <c r="G6" t="n">
-        <v>433754.2806450776</v>
+        <v>433406.9013907208</v>
       </c>
       <c r="H6" t="n">
-        <v>433754.2806450783</v>
+        <v>433406.901390721</v>
       </c>
       <c r="I6" t="n">
-        <v>433754.2806450783</v>
+        <v>433406.9013907207</v>
       </c>
       <c r="J6" t="n">
-        <v>266149.1028350957</v>
+        <v>265801.7235807386</v>
       </c>
       <c r="K6" t="n">
-        <v>384644.1879390235</v>
+        <v>384296.8086846667</v>
       </c>
       <c r="L6" t="n">
-        <v>433754.2806450781</v>
+        <v>433406.9013907209</v>
       </c>
       <c r="M6" t="n">
-        <v>348699.2527095664</v>
+        <v>348351.8734552091</v>
       </c>
       <c r="N6" t="n">
-        <v>433754.2806450782</v>
+        <v>433406.9013907209</v>
       </c>
       <c r="O6" t="n">
-        <v>433754.2806450782</v>
+        <v>433406.9013907213</v>
       </c>
       <c r="P6" t="n">
-        <v>433754.2806450781</v>
+        <v>433406.901390721</v>
       </c>
     </row>
   </sheetData>
@@ -26706,19 +26706,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>204.7557893481895</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>255.5850792565763</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27438,13 +27438,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>25.62935658963983</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>132.3583119810463</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>290.3129182374914</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.7665117192692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>53.9174566644453</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>16.79419214140273</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>5.189545257671341</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>92.67648855686383</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29040,16 +29040,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29240,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.13460853191865e-12</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29283,16 +29283,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.331129313929566e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29511,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.386032029889369e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29562,10 +29562,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.925249708871845e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29930,7 +29930,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.920691659962316e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30194,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.920691659962316e-12</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>518.439455159358</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>376.3054212373396</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572999045</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326296028</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066204</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1819010.9124863</v>
+        <v>1820771.442789085</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>45.43347330582912</v>
+        <v>150.9308355306597</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>169.0331037720977</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>17.42775815369538</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>169.5015886993131</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>58.92805047992164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>56.54941082145527</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>245.8056267012306</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>52.07852635745694</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>20.45352712646384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>159.7642955692148</v>
       </c>
       <c r="D13" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>176.76214411214</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000749</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142596</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>41.02686156550218</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>271.1749250822257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>224.7837165195618</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.0175085755505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>102.7673426709139</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936148</v>
+        <v>80.25286948725228</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>182.4326803923963</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990.2034880760486</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C2" t="n">
-        <v>990.2034880760486</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="D2" t="n">
-        <v>990.2034880760486</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="E2" t="n">
-        <v>990.2034880760486</v>
+        <v>1030.392831058231</v>
       </c>
       <c r="F2" t="n">
-        <v>579.2175832864411</v>
+        <v>619.406926268623</v>
       </c>
       <c r="G2" t="n">
-        <v>163.51283301073</v>
+        <v>203.7021759929119</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583054</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.80857831294</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.34282005186</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y2" t="n">
-        <v>990.2034880760486</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1465.705611213792</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1242.727130408528</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1242.727130408528</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1242.727130408528</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W4" t="n">
-        <v>1242.727130408528</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1014.73757951051</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1105.781096096228</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>694.7951913066204</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>279.7227411516168</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1243.280836875046</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C8" t="n">
-        <v>874.3183199346347</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>558.3633855315313</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>172.5751329332871</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>165.6296321840836</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052367</v>
@@ -4834,22 +4834,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3077.317309789745</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2746.254422446174</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2393.48576717606</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2020.02000891498</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1629.880676939168</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738568</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C10" t="n">
-        <v>583.8261120459499</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336142</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>433.7094726336142</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>286.8195251357038</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>119.1166885104227</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218339</v>
@@ -4965,49 +4965,49 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1906.634419677923</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1617.531552803567</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1362.84706459768</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845644</v>
+        <v>1073.429894560719</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040965</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5044,19 +5044,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,19 +5123,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>1091.10905366816</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>1272.757518498399</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5460,16 +5460,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.514925172274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
         <v>2018.514925172274</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5609,10 +5609,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5688,37 +5688,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694706</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.9487421954783</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>491.0125592675714</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2343.157686942974</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2123.556221965915</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U31" t="n">
-        <v>1834.480995310113</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V31" t="n">
-        <v>1579.796507104226</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W31" t="n">
-        <v>1290.379337067265</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.389786169248</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>841.597207025718</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7180,7 +7180,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400667</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121598</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121598</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121598</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F40" t="n">
-        <v>198.0274703142494</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510504</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611854</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138365</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703064</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
         <v>484.8112968429803</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7.482525529413039</v>
       </c>
       <c r="D13" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>40.64330621514821</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>45.37941682721333</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>138.4949402405113</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>15.00954930701846</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.9259388694754023</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>4.506629716718379</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>78.25894333073069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>105.8542358274168</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909865406</v>
+        <v>85.27126880501656</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>34.97276993489194</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876831.7541419413</v>
+        <v>876831.7541419416</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583915</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
         <v>544823.9547907539</v>
@@ -26328,19 +26328,19 @@
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
@@ -26349,13 +26349,13 @@
         <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>203438.7416121055</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605454</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312027</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26444,7 +26444,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768938</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791416.7717645944</v>
+        <v>-791416.7717645953</v>
       </c>
       <c r="C6" t="n">
-        <v>153696.333391772</v>
+        <v>153696.3333917722</v>
       </c>
       <c r="D6" t="n">
-        <v>357135.0750038784</v>
+        <v>357135.0750038777</v>
       </c>
       <c r="E6" t="n">
-        <v>107994.4395833653</v>
+        <v>108307.0809122869</v>
       </c>
       <c r="F6" t="n">
-        <v>433406.901390721</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="G6" t="n">
-        <v>433406.9013907208</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="H6" t="n">
-        <v>433406.901390721</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="I6" t="n">
-        <v>433406.9013907207</v>
+        <v>433719.5427196426</v>
       </c>
       <c r="J6" t="n">
-        <v>265801.7235807386</v>
+        <v>266114.3649096601</v>
       </c>
       <c r="K6" t="n">
-        <v>384296.8086846667</v>
+        <v>384609.450013588</v>
       </c>
       <c r="L6" t="n">
-        <v>433406.9013907209</v>
+        <v>433719.542719642</v>
       </c>
       <c r="M6" t="n">
-        <v>348351.8734552091</v>
+        <v>348664.5147841304</v>
       </c>
       <c r="N6" t="n">
-        <v>433406.9013907209</v>
+        <v>433719.5427196424</v>
       </c>
       <c r="O6" t="n">
-        <v>433406.9013907213</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="P6" t="n">
-        <v>433406.901390721</v>
+        <v>433719.542719642</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022924</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>255.5850792565763</v>
+        <v>150.0877170317457</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>25.62935658963983</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1568951983994</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>125.1061756880074</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>290.3129182374914</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>354.3723148319982</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.189545257671341</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>92.67648855686383</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>199.0954221497053</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30422,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M15" t="n">
-        <v>547.6926421044561</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32235,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M15" t="n">
-        <v>405.5586081824378</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36056,7 +36056,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36296,7 +36296,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306621</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
